--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_summary_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_summary_Lineal_No_Estacionario_ARIMA.xlsx
@@ -40,19 +40,19 @@
     <t>Block Bootstrapping</t>
   </si>
   <si>
+    <t>LSPM</t>
+  </si>
+  <si>
     <t>LSPMW</t>
   </si>
   <si>
+    <t>EnCQR-LSTM</t>
+  </si>
+  <si>
+    <t>DeepAR</t>
+  </si>
+  <si>
     <t>AV-MCPS</t>
-  </si>
-  <si>
-    <t>EnCQR-LSTM</t>
-  </si>
-  <si>
-    <t>DeepAR</t>
-  </si>
-  <si>
-    <t>LSPM</t>
   </si>
   <si>
     <t>MCPS</t>
@@ -510,7 +510,7 @@
         <v>100</v>
       </c>
       <c r="E5">
-        <v>1.056056548639601</v>
+        <v>1.059559215525704</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -518,16 +518,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>2.740174974423968</v>
+        <v>1.056056548639601</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -575,10 +575,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1.059559215525704</v>
+        <v>2.740174974423968</v>
       </c>
     </row>
     <row r="10" spans="1:5">
